--- a/artifacts/model_trainer/train/train_y.xlsx
+++ b/artifacts/model_trainer/train/train_y.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1438"/>
+  <dimension ref="A1:A1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7187 +442,7847 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01916157907191884</v>
+        <v>0.2664913027460403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01764538389656067</v>
+        <v>0.2656183816682849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01384230318220148</v>
+        <v>0.2634316636875127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01840383998952611</v>
+        <v>0.2660549679996567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01688620950810815</v>
+        <v>0.2651815433941918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01764538389656067</v>
+        <v>0.2656183816682849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01840383998952611</v>
+        <v>0.2660549679996567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01840383998952611</v>
+        <v>0.2660549679996567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01840383998952611</v>
+        <v>0.2660549679996567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01612631553586308</v>
+        <v>0.2647444528188341</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01726588656971018</v>
+        <v>0.2653999940464686</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01840383998952611</v>
+        <v>0.2660549679996567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.01954018013476233</v>
+        <v>0.2667093758864305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.02067491132776489</v>
+        <v>0.2673632189107236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02519783243041651</v>
+        <v>0.2555066254037399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02067491132776489</v>
+        <v>0.2699729663194916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.02669981459432513</v>
+        <v>0.2673632189107236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0326797185598009</v>
+        <v>0.270840891161227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03861525498737706</v>
+        <v>0.2743027101705087</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03193466974383252</v>
+        <v>0.27774885282807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03416773773274784</v>
+        <v>0.2738708436920894</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.03639458858989997</v>
+        <v>0.2751657086523942</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03861525498737706</v>
+        <v>0.276458375306694</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04193472957229449</v>
+        <v>0.27774885282807</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.04524047037750289</v>
+        <v>0.2796804844023595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.04853258452705589</v>
+        <v>0.2816072414157471</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.05181117791995238</v>
+        <v>0.2835291540668481</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.04743672065474325</v>
+        <v>0.2854462522571313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.05181117791995238</v>
+        <v>0.2828890529271171</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05181117791995238</v>
+        <v>0.2854462522571313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.05017356474674628</v>
+        <v>0.2854462522571313</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.04853258452705589</v>
+        <v>0.284488303112248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04688822413705473</v>
+        <v>0.2835291540668481</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04524047037750289</v>
+        <v>0.2825688014108241</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.04853258452705589</v>
+        <v>0.2816072414157471</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05181117791995238</v>
+        <v>0.2835291540668481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.05181117791995238</v>
+        <v>0.2854462522571313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05398944706611353</v>
+        <v>0.2854462522571313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05616178426724705</v>
+        <v>0.2867216576502021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05832822001668614</v>
+        <v>0.2879949451493742</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.05832822001668614</v>
+        <v>0.2892661233992933</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.06048878457766094</v>
+        <v>0.2892661233992933</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.05832822001668614</v>
+        <v>0.2905352009884896</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.05832822001668614</v>
+        <v>0.2892661233992933</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.06120767325393039</v>
+        <v>0.2892661233992933</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.06407675990262884</v>
+        <v>0.2909577615144794</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.06693555035832954</v>
+        <v>0.2926456853197335</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.06264350798558382</v>
+        <v>0.2943299148457825</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.06693555035832954</v>
+        <v>0.2918021864498803</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.07120458294697141</v>
+        <v>0.2943299148457825</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.07333054330367705</v>
+        <v>0.2968493757566304</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0747447008887141</v>
+        <v>0.2981060266604145</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.07615634888915146</v>
+        <v>0.2989426589411237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.07756549571884275</v>
+        <v>0.2997783860552858</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.07967454457160095</v>
+        <v>0.3006132104121213</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.07967454457160095</v>
+        <v>0.3018637595224516</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.07967454457160095</v>
+        <v>0.3018637595224516</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.07967454457160095</v>
+        <v>0.3018637595224516</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.08317723816223488</v>
+        <v>0.3018637595224516</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08666455840685749</v>
+        <v>0.3039435280946041</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.09013663248398185</v>
+        <v>0.3060177287449886</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1004626265098709</v>
+        <v>0.308086398059555</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1014878692760828</v>
+        <v>0.3142595781542465</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1025117875609789</v>
+        <v>0.3148742130694977</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1035343845985643</v>
+        <v>0.315488363940319</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1045556636112392</v>
+        <v>0.3161020317049072</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1055756278098521</v>
+        <v>0.3167152172985657</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1065942803937485</v>
+        <v>0.3173279216537106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.09221261109798817</v>
+        <v>0.3179401456998907</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1025117875609789</v>
+        <v>0.3093249596837691</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1025117875609789</v>
+        <v>0.315488363940319</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1086276634576402</v>
+        <v>0.315488363940319</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1093042991533109</v>
+        <v>0.319163156569259</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1099803570797668</v>
+        <v>0.3195704020175949</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.1106558381698299</v>
+        <v>0.3199774354993237</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1086276634576402</v>
+        <v>0.3203842572860838</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.1167093631678222</v>
+        <v>0.319163156569259</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.1106558381698299</v>
+        <v>0.3240361716401607</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1146966631059074</v>
+        <v>0.3203842572860838</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1167093631678222</v>
+        <v>0.322820757554289</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1187169545574172</v>
+        <v>0.3240361716401607</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.3252497046432192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1167093631678222</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1247093206435892</v>
+        <v>0.3240361716401607</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.328879088512438</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1233816046023879</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1260348092326646</v>
+        <v>0.3280740064519083</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.1286791322637146</v>
+        <v>0.3296833471462737</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.3312894024137878</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.1266967204403606</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.1266967204403606</v>
+        <v>0.3300851683260244</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1247093206435892</v>
+        <v>0.3300851683260244</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1227169090717766</v>
+        <v>0.328879088512438</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1207194617557859</v>
+        <v>0.3276711559868364</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1286791322637146</v>
+        <v>0.3264613637207776</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1286791322637146</v>
+        <v>0.3312894024137878</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3312894024137878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1463002261771988</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1450083801404309</v>
+        <v>0.3420455837913006</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1437144124943117</v>
+        <v>0.3412538283434643</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3404612806756633</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1463002261771988</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3420455837913006</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1437144124943117</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1450083801404309</v>
+        <v>0.3404612806756633</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.1463002261771988</v>
+        <v>0.3412538283434643</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.3420455837913006</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1501631002096913</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.344416116260668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1559221037186997</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.1571961784608122</v>
+        <v>0.3479586930589642</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1584681928447944</v>
+        <v>0.3487437925394576</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3495281180056609</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1622719366632586</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1629041085072442</v>
+        <v>0.3518764690576688</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.1635357722893565</v>
+        <v>0.3522671888164353</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1644823170349659</v>
+        <v>0.3526577171697576</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.165427722976637</v>
+        <v>0.3532431513194458</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.1679432576697186</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.1647975787545564</v>
+        <v>0.3553860756281515</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3534382005831171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.165427722976637</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.17854526644527</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1822532054683865</v>
+        <v>0.3619735697298223</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1871699959218995</v>
+        <v>0.3642856936471381</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.1920561180698614</v>
+        <v>0.3673582043989141</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.1969119318808303</v>
+        <v>0.3704190209517859</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.204139596714648</v>
+        <v>0.3734682523686488</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.2166293293880983</v>
+        <v>0.3780206119786249</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.2183973740193288</v>
+        <v>0.3859261659336854</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.2166293293880983</v>
+        <v>0.3870492719996954</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.2207485496611064</v>
+        <v>0.3859261659336854</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2248461230214778</v>
+        <v>0.3885443385346361</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.2289222637198147</v>
+        <v>0.3911541172182993</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.2306626725759573</v>
+        <v>0.3937555679840334</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.2341318626052171</v>
+        <v>0.3948679422727115</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.2341318626052171</v>
+        <v>0.3970881582527797</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.2375856575292881</v>
+        <v>0.3970881582527797</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2387335236708781</v>
+        <v>0.3993023643530103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.2398796982953124</v>
+        <v>0.4000391044372942</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2410241861130897</v>
+        <v>0.4007751826651968</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2410241861130897</v>
+        <v>0.4015106004998512</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2427377653340823</v>
+        <v>0.4015106004998512</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2444475755429485</v>
+        <v>0.4026124922024292</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4037129061985603</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2467214866260097</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2404521527613817</v>
+        <v>0.4051778346249717</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2341318626052171</v>
+        <v>0.4011429740404353</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.2323992000889126</v>
+        <v>0.3970881582527797</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2306626725759573</v>
+        <v>0.3959788040097487</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.2341318626052171</v>
+        <v>0.3948679422727115</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.204139596714648</v>
+        <v>0.3970881582527797</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3780206119786249</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2005341154454428</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.1987251205941227</v>
+        <v>0.3757476378835869</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.1960037590693533</v>
+        <v>0.3746087493385963</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1955492770380243</v>
+        <v>0.3728973989728208</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1950945308695751</v>
+        <v>0.3726118207395106</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3723261413650634</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1920561180698614</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.1908374428939785</v>
+        <v>0.3704190209517859</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.189616867889459</v>
+        <v>0.3696549071525257</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1891586613185474</v>
+        <v>0.3688900675956004</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1914470176106953</v>
+        <v>0.3686030653054082</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3700370546658074</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.1908374428939785</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.1883943874442604</v>
+        <v>0.3696549071525257</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.1859436876613341</v>
+        <v>0.3681245005801408</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.1914470176106953</v>
+        <v>0.3665911773382926</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.189616867889459</v>
+        <v>0.3700370546658074</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.1914470176106953</v>
+        <v>0.3688900675956004</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.192968729013014</v>
+        <v>0.3700370546658074</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.1944874877751186</v>
+        <v>0.3709915356412505</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1960033047191621</v>
+        <v>0.3719448874724576</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.1975161906090284</v>
+        <v>0.3728971134450778</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.189616867889459</v>
+        <v>0.3738482168295494</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.191675485822433</v>
+        <v>0.3688900675956004</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.1937287046328358</v>
+        <v>0.3701803132492489</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.1748197136782066</v>
+        <v>0.371468495511216</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.177305380414098</v>
+        <v>0.3596547582624039</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.179783195410935</v>
+        <v>0.3612013779875964</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.1822532054683865</v>
+        <v>0.36274501841537</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3642856936471381</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.1629041085072442</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.1584681928447944</v>
+        <v>0.3522671888164353</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3495281180056609</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1635357722893565</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3526577171697576</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1404701679321603</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.1385171933034677</v>
+        <v>0.3384764326882963</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.1365593700785963</v>
+        <v>0.3372831285680384</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.1394942852717165</v>
+        <v>0.3360880197710963</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3378800057930724</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.1345966754291901</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1372125179590373</v>
+        <v>0.3348910995575967</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.1398197137194925</v>
+        <v>0.3364865903049254</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3380788647534454</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.1501631002096913</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.344416116260668</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.1501631002096913</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.1488775796838455</v>
+        <v>0.344416116260668</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.1475899571773871</v>
+        <v>0.3436267258129491</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.1463002261771988</v>
+        <v>0.3428365489675462</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3420455837913006</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.1495206022884323</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.1508050742571436</v>
+        <v>0.3440215192159917</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.3448105171874438</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.1424183166359647</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3396679388318546</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.1463002261771988</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.1458160321216342</v>
+        <v>0.3420455837913006</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.1453315402932374</v>
+        <v>0.3417487682127958</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.1448467503452981</v>
+        <v>0.3414518413998056</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3411548032495588</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.1443616619305121</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3408576536591315</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.1486037937057958</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.1489733822925459</v>
+        <v>0.3434586690046897</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.1493427974988633</v>
+        <v>0.3436855372844623</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.1497120394785911</v>
+        <v>0.3439123406956563</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.1500811083853684</v>
+        <v>0.3441390792839532</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.1504500043726393</v>
+        <v>0.3443657530949871</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.1508187275936432</v>
+        <v>0.3445923621743359</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.1511872782014194</v>
+        <v>0.3448189065675307</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.1515556563488127</v>
+        <v>0.3450453863200489</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.1519238621884647</v>
+        <v>0.3452718014773191</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.1522918958728194</v>
+        <v>0.3454981520847169</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.1526597575541242</v>
+        <v>0.3457244381875684</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.1530274473844244</v>
+        <v>0.3459506598311488</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.1533949655155702</v>
+        <v>0.3461768170606825</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.1537623120992162</v>
+        <v>0.3464029099213428</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.1541294872868164</v>
+        <v>0.3466289384582539</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.1544964912296276</v>
+        <v>0.346854902716488</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.1548633240787165</v>
+        <v>0.3470808027410686</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.1552299859849491</v>
+        <v>0.3473066385769672</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.1555964770989933</v>
+        <v>0.3475324102691075</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.1559627975713251</v>
+        <v>0.3477581178623599</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.1563289475522271</v>
+        <v>0.3479837614015469</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.1566949271917837</v>
+        <v>0.3482093409314417</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.1570607366398864</v>
+        <v>0.348434856496765</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.1574263760462333</v>
+        <v>0.3486603081421913</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.1577918455603271</v>
+        <v>0.3488856959123414</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.1581571453314803</v>
+        <v>0.3491110198517897</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.1585222755088065</v>
+        <v>0.349336280005059</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.1588872362412364</v>
+        <v>0.3495614764166242</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.1592520276774962</v>
+        <v>0.3497866091309099</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.1596166499661305</v>
+        <v>0.3500116781922904</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.1599811032554861</v>
+        <v>0.3502366836450928</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.1603453876937202</v>
+        <v>0.3504616255335939</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.160709503428798</v>
+        <v>0.3506865039020213</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.1610734506084972</v>
+        <v>0.3509113187945532</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.1614372293804029</v>
+        <v>0.3511360702553201</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.1618008398919084</v>
+        <v>0.3513607583284026</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.1621642822902203</v>
+        <v>0.3515853830578335</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.1625275567223534</v>
+        <v>0.3518099444875955</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.1628906633351344</v>
+        <v>0.3520344426616224</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.1632536022752014</v>
+        <v>0.3522588776238016</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.1636163736890053</v>
+        <v>0.3524832494179708</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.163978977722806</v>
+        <v>0.3527075580879178</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.1643414145226769</v>
+        <v>0.352931803677385</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.1647036842345049</v>
+        <v>0.3531559862300631</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.1650657870039876</v>
+        <v>0.3533801057895971</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.165427722976637</v>
+        <v>0.353604162399584</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.1657894922977787</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.1661510951125527</v>
+        <v>0.3540520869450574</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.1665125315659113</v>
+        <v>0.3542759549674961</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.1668738018026215</v>
+        <v>0.3544997602142905</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.167234905967268</v>
+        <v>0.3547235027287989</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.1675958442042438</v>
+        <v>0.3549471825543278</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.167956616657766</v>
+        <v>0.3551707997341396</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.1683172234718597</v>
+        <v>0.3553943543114468</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.1686776647903701</v>
+        <v>0.3556178463294166</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.1690379407569562</v>
+        <v>0.355841275831166</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.1693980515150981</v>
+        <v>0.3560646428597674</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.1697579972080892</v>
+        <v>0.3562879474582441</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.170117777979037</v>
+        <v>0.3565111896695734</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.1704773939708728</v>
+        <v>0.3567343695366847</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.1708368453263436</v>
+        <v>0.3569574871024592</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.1711961321880118</v>
+        <v>0.3571805424097341</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.1715552546982604</v>
+        <v>0.357403535501297</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.1719142129992903</v>
+        <v>0.35762646641989</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.1722730072331258</v>
+        <v>0.3578493352082071</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.1726316375416044</v>
+        <v>0.3580721419088979</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.1729901040663853</v>
+        <v>0.3582948865645625</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.1733484069489482</v>
+        <v>0.3585175692177571</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.1737065463305933</v>
+        <v>0.3587401899109892</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.17406452235244</v>
+        <v>0.3589627486867213</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.1744223351554304</v>
+        <v>0.3591852455873683</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.1747799848803275</v>
+        <v>0.3594076806553004</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.1751374716677105</v>
+        <v>0.3596300539328401</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.1754947956579906</v>
+        <v>0.3598523654622645</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.1758519569913926</v>
+        <v>0.3600746152858045</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.1762089558079634</v>
+        <v>0.3602968034456449</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.1765657922475814</v>
+        <v>0.3605189299839242</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.1769224664499376</v>
+        <v>0.3607409949427358</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.1772789785545523</v>
+        <v>0.3609629983641267</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.1776353287007648</v>
+        <v>0.3611849402900977</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.1779915170277464</v>
+        <v>0.3614068207626053</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.178347543674481</v>
+        <v>0.3616286398235602</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.1787034087797865</v>
+        <v>0.3618503975148251</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.1790591124823013</v>
+        <v>0.3620720938782205</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.1794146549204889</v>
+        <v>0.3622937289555195</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.1797700362326395</v>
+        <v>0.36251530278845</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.1801252565568676</v>
+        <v>0.3627368154186963</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.1804803160311135</v>
+        <v>0.3629582668878946</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.1808352147931442</v>
+        <v>0.3631796572376396</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.1811899529805547</v>
+        <v>0.3634009865094774</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.181544530730763</v>
+        <v>0.3636222547449108</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.181898948181014</v>
+        <v>0.3638434619853976</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.1822532054683865</v>
+        <v>0.3640646082723509</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3642856936471381</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.1791638562312672</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.1795765971499543</v>
+        <v>0.3623590011201678</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.1799891209406148</v>
+        <v>0.362616238093711</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.1804014278192838</v>
+        <v>0.3628733925859231</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.1766847016678357</v>
+        <v>0.3631304646619407</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3608150029186157</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.1748197136782066</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.1735739211701199</v>
+        <v>0.3596547582624039</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.1723261479894855</v>
+        <v>0.358880326727298</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3581051450311661</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.1635357722893565</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3526577171697576</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3506053051491029</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3508988307428129</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3511922482144654</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.165427722976637</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.1559221037186997</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.1571961784608122</v>
+        <v>0.3479586930589642</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.1584681928447944</v>
+        <v>0.3487437925394576</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3495281180056609</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.1606892792001897</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.3508988307428129</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.1578324428034268</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.1591034293709814</v>
+        <v>0.3491360519068289</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.1603723650132656</v>
+        <v>0.3499199910704165</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3507031590332952</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.1578324428034268</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3491360519068289</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.1501631002096913</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.344416116260668</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.1488775796838455</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.1495206022884323</v>
+        <v>0.3436267258129491</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.1501631002096913</v>
+        <v>0.3440215192159917</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.1520874539595312</v>
+        <v>0.344416116260668</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3455987316468161</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.1482340315845683</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.3432317358106034</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.1540071145922797</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.156877853180406</v>
+        <v>0.346779588436372</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3485475903066755</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.1578324428034268</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3491360519068289</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.1578324428034268</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3491360519068289</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.1578324428034268</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.1584681928447944</v>
+        <v>0.3491360519068289</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.1591034293709814</v>
+        <v>0.3495281180056609</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3499199910704165</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.159738153166292</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.1644823170349659</v>
+        <v>0.3503116713351084</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3532431513194458</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.1673151287987213</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.165427722976637</v>
+        <v>0.3549968806732577</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.1635357722893565</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3526577171697576</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.1748197136782066</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.1804014278192838</v>
+        <v>0.3596547582624039</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.1828694939062672</v>
+        <v>0.3631304646619407</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.1853298129783907</v>
+        <v>0.3646704007855968</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.366207389190943</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.17854526644527</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.17854526644527</v>
+        <v>0.3619735697298223</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.17854526644527</v>
+        <v>0.3619735697298223</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.1859436876613341</v>
+        <v>0.3619735697298223</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.1865570817386706</v>
+        <v>0.3665911773382926</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.1871699959218995</v>
+        <v>0.3669747823358802</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3673582043989141</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1987251205941227</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.1914470176106953</v>
+        <v>0.3746087493385963</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3700370546658074</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.2031175075855414</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.2038953056667907</v>
+        <v>0.3759752230729687</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.2046723304535609</v>
+        <v>0.3750644974545456</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.2054485833993471</v>
+        <v>0.3741527438750007</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.2062240659536307</v>
+        <v>0.3732399594706488</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.2069987795618857</v>
+        <v>0.3723261413650634</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.2077727256656043</v>
+        <v>0.3714112866690045</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.2085459057023025</v>
+        <v>0.3704953924803347</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.2093183211055418</v>
+        <v>0.3695784558839428</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.2100899733049344</v>
+        <v>0.3686604739516646</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.2108608637261646</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.2116309937910046</v>
+        <v>0.3668213623010339</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.2124003649173183</v>
+        <v>0.3659002266603562</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.2131689785190902</v>
+        <v>0.3649780338389741</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.2139368360064218</v>
+        <v>0.3640547808422356</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.2147039387855676</v>
+        <v>0.3631304646619407</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.2154702882589294</v>
+        <v>0.3622050822762597</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.2162358858250775</v>
+        <v>0.3612786306496487</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.2170007328787662</v>
+        <v>0.3603511067327627</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.2177648308109443</v>
+        <v>0.3594225074623694</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.2185281810087769</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.2192907848556427</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.2200526437311643</v>
+        <v>0.3594805764794193</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.2208137590112127</v>
+        <v>0.3604671059678142</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.2215741320679241</v>
+        <v>0.3614524219158679</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.2223337642697096</v>
+        <v>0.3624365279952058</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.2230926569812741</v>
+        <v>0.3634194278597758</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.223850811563624</v>
+        <v>0.3644011251459658</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.224608229374085</v>
+        <v>0.3653816234727179</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.2253649117663095</v>
+        <v>0.3663609264416439</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.2261208600902993</v>
+        <v>0.3673390376371404</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.2268760756924078</v>
+        <v>0.3683159606264983</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.227630559915359</v>
+        <v>0.3692916989600183</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.2283843140982578</v>
+        <v>0.3702662561711183</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.2291373395766083</v>
+        <v>0.3712396357764474</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.2298896376823203</v>
+        <v>0.3722118412759898</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.2306412097437232</v>
+        <v>0.3731828761531795</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.231392057085583</v>
+        <v>0.3741527438750007</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.2321421810291051</v>
+        <v>0.3751214478920999</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.2328915828919635</v>
+        <v>0.3760889916388872</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.2336402639882937</v>
+        <v>0.3770553785336439</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.2343882256287229</v>
+        <v>0.3780206119786249</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.2351354691203689</v>
+        <v>0.3789846953601621</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.2358819957668592</v>
+        <v>0.379947632048766</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.2366278068683458</v>
+        <v>0.3809094253992271</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.2373729037215044</v>
+        <v>0.3818700787507188</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.2381172876195663</v>
+        <v>0.3828295954268917</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.2388609598523157</v>
+        <v>0.3837879787359775</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.2396039217061068</v>
+        <v>0.3847452319708851</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.2403461744638697</v>
+        <v>0.3857013584092974</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.2410877194051366</v>
+        <v>0.386656361313769</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.2418285578060413</v>
+        <v>0.3876102439318203</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.2425686909393336</v>
+        <v>0.3885630094960337</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.2433081200743974</v>
+        <v>0.3895146612241478</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.2440468464772474</v>
+        <v>0.3904652023191499</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.2447848714105616</v>
+        <v>0.39141463596937</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.2455221961336775</v>
+        <v>0.3923629653485696</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.2462588219026074</v>
+        <v>0.3933101936160377</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.2469947499700531</v>
+        <v>0.3942563239166785</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.2477299815854144</v>
+        <v>0.3952013593811001</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.248464517994802</v>
+        <v>0.3961453031257052</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.2491983604410501</v>
+        <v>0.3970881582527797</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.2499315101637229</v>
+        <v>0.3980299278505788</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.2506639683991301</v>
+        <v>0.3989706149934167</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.2513957363803385</v>
+        <v>0.399910222741749</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.2521268153371832</v>
+        <v>0.4008487541422618</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.252857206496274</v>
+        <v>0.4017862122279532</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.2535869110810101</v>
+        <v>0.4027226000182211</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.2543159303115985</v>
+        <v>0.4036579205189457</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.2550442654050471</v>
+        <v>0.4045921767225709</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.2557719175751965</v>
+        <v>0.405525371608187</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.2564988880327119</v>
+        <v>0.4064575081416149</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.2572251779851076</v>
+        <v>0.4073885892754832</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.2579507886367516</v>
+        <v>0.4083186179493117</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.2586757211888804</v>
+        <v>0.4092475970895899</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.2593999768396067</v>
+        <v>0.4101755296098573</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.2601235567839266</v>
+        <v>0.4111024184107783</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.2608464622137392</v>
+        <v>0.4120282663802253</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.2615686943178517</v>
+        <v>0.4129530763933529</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.2622902542819858</v>
+        <v>0.4138768513126743</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4147995939881397</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.2646769197293004</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.2646769197293004</v>
+        <v>0.4168043617127777</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.2646769197293004</v>
+        <v>0.4168043617127777</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.2663391234478025</v>
+        <v>0.4168043617127777</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.2679977689162714</v>
+        <v>0.4178859998722244</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.2696528705205798</v>
+        <v>0.418966226290344</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.2646769197293004</v>
+        <v>0.4200450454986226</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.2613417795675543</v>
+        <v>0.4168043617127777</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.2613417795675543</v>
+        <v>0.4146368319272615</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4146368319272615</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.2219214843471802</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.1987251205941227</v>
+        <v>0.3892908432074369</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.1905324774705885</v>
+        <v>0.3746087493385963</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.1822532054683865</v>
+        <v>0.3694637653694073</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.1938805808716175</v>
+        <v>0.3642856936471381</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.2053377373219689</v>
+        <v>0.3715638345601322</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.2166293293880983</v>
+        <v>0.3787768529131259</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3859261659336854</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.1996301411049215</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.1969119318808303</v>
+        <v>0.3751783943148825</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.1920561180698614</v>
+        <v>0.3734682523686488</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.1871699959218995</v>
+        <v>0.3704190209517859</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.1822532054683865</v>
+        <v>0.3673582043989141</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.17854526644527</v>
+        <v>0.3642856936471381</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3619735697298223</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.1710763881690847</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.1616392559835891</v>
+        <v>0.3573292113809934</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.165427722976637</v>
+        <v>0.3514855576621403</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.1691980103703816</v>
+        <v>0.3538281561035708</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3561638970528462</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.1729502825362044</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.1804014278192838</v>
+        <v>0.3584928297612637</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3631304646619407</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.1877824309209633</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.1909898810730164</v>
+        <v>0.3677414437421995</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.1941842449583193</v>
+        <v>0.3697504610324935</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.1973656232398957</v>
+        <v>0.3717544788394083</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.2005341154454428</v>
+        <v>0.3737535277071675</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.189616867889459</v>
+        <v>0.3757476378835869</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3688900675956004</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.1932728990048718</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.1963066004907033</v>
+        <v>0.3711824106879185</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.1993285839555634</v>
+        <v>0.3730877283157275</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3749885572914009</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.204139596714648</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3780206119786249</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.2023389347522828</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.2017377911401921</v>
+        <v>0.3768849235812959</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.2011361849292683</v>
+        <v>0.3765060060998366</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.2005341154454428</v>
+        <v>0.3761269109357468</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.2148572688998946</v>
+        <v>0.3757476378835869</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.2183973740193288</v>
+        <v>0.3848015058622081</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.2183973740193288</v>
+        <v>0.3870492719996954</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.2206018086811206</v>
+        <v>0.3870492719996954</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.2228000287412106</v>
+        <v>0.3884509773033034</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.2249920672681016</v>
+        <v>0.3898502729717033</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.2271779570720156</v>
+        <v>0.391247169186022</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.2306626725759573</v>
+        <v>0.3926416760589813</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.2306626725759573</v>
+        <v>0.3948679422727115</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.2183973740193288</v>
+        <v>0.3948679422727115</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.2166293293880983</v>
+        <v>0.3870492719996954</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.2148572688998946</v>
+        <v>0.3859261659336854</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.2130811752597221</v>
+        <v>0.3848015058622081</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.2113010310627628</v>
+        <v>0.3836752864763411</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.2166293293880983</v>
+        <v>0.3825475024381906</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.2201614199796671</v>
+        <v>0.3859261659336854</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.2236775840928207</v>
+        <v>0.3881708293404051</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.2232389299156141</v>
+        <v>0.3904093188240825</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.2228000287412106</v>
+        <v>0.3901298438463054</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.2223608803063035</v>
+        <v>0.3898502729717033</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.2219214843471802</v>
+        <v>0.3895706061191566</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.2219214843471802</v>
+        <v>0.3892908432074369</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.2219214843471802</v>
+        <v>0.3892908432074369</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.2271779570720156</v>
+        <v>0.3892908432074369</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.2219214843471802</v>
+        <v>0.3926416760589813</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.2245541525067898</v>
+        <v>0.3892908432074369</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.2271779570720156</v>
+        <v>0.3909679814130942</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.2297929543414146</v>
+        <v>0.3926416760589813</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.2323992000889126</v>
+        <v>0.3943119445144856</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.2349967495702474</v>
+        <v>0.3959788040097487</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.2375856575292881</v>
+        <v>0.3976422716371897</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.2401659782043017</v>
+        <v>0.3993023643530103</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.2427377653340823</v>
+        <v>0.4009590989786871</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.2453010721640165</v>
+        <v>0.4026124922024292</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.247855951452042</v>
+        <v>0.4042625605806287</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.2495545481781329</v>
+        <v>0.4059093205392841</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4070053305540338</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.2536160850009237</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.254290946699447</v>
+        <v>0.4096298135385608</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.254965222093066</v>
+        <v>0.4100664153063172</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.255638912144879</v>
+        <v>0.4105027858637529</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.256312017815663</v>
+        <v>0.4109389255123304</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.2596688139193466</v>
+        <v>0.4113748345528865</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.2908530927064792</v>
+        <v>0.4135509311210259</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.2908530927064792</v>
+        <v>0.4339436595114545</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.3004449922780363</v>
+        <v>0.4339436595114545</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.309919047740963</v>
+        <v>0.4402811023269539</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.3192779690130045</v>
+        <v>0.4465709786307197</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.4528141585630869</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.3285243752941973</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.3421885360493437</v>
+        <v>0.4590114871617832</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.3411846800354059</v>
+        <v>0.4682232982047325</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.3401795080246943</v>
+        <v>0.4675443570522975</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.3391730167489069</v>
+        <v>0.4668648735947789</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.3391730167489069</v>
+        <v>0.4661848467636043</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.3406822587336364</v>
+        <v>0.4661848467636043</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.3451922406153995</v>
+        <v>0.4672046831783814</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.3455668773202758</v>
+        <v>0.4702568784671783</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.3459413309544264</v>
+        <v>0.4705107349216684</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.3463156016870554</v>
+        <v>0.4707645157664566</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.3466896896871381</v>
+        <v>0.4710182210570082</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.471271850848723</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.3496758355176119</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.3511645537443941</v>
+        <v>0.4732981778510352</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.3511645537443941</v>
+        <v>0.4743095395176642</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.3522379418670125</v>
+        <v>0.4743095395176642</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.3533098271132049</v>
+        <v>0.4750392230345897</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.3543802134596774</v>
+        <v>0.4757682837364829</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.3554491048676773</v>
+        <v>0.47649672293157</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.3565165052830546</v>
+        <v>0.4772245419237013</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.3575824186363628</v>
+        <v>0.4779517420123729</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.3586468488429224</v>
+        <v>0.4786783244927433</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.3597097998029035</v>
+        <v>0.4794042906556573</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.360771275401401</v>
+        <v>0.4801296417876644</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.3618312795085181</v>
+        <v>0.4808543791710378</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.3628898159794334</v>
+        <v>0.4815785040837937</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.3639468886544819</v>
+        <v>0.4823020177997113</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.365002501359232</v>
+        <v>0.4830249215883518</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.3660566579045534</v>
+        <v>0.4837472167150785</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.3671093620867021</v>
+        <v>0.484468904441073</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.3681606176873808</v>
+        <v>0.4851899860233582</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.3692104284738278</v>
+        <v>0.4859104627148141</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.3702587981988756</v>
+        <v>0.4866303357641975</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.3644342757036014</v>
+        <v>0.48734960641616</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.3654081183032423</v>
+        <v>0.4833583641260177</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.3663807213973875</v>
+        <v>0.4842330348194577</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.3673520879679204</v>
+        <v>0.4851068151969693</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.3683222209861894</v>
+        <v>0.4859797074882097</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.3692911234130403</v>
+        <v>0.4868517139139512</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.3702587981988756</v>
+        <v>0.487722836686123</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.3712252482837002</v>
+        <v>0.488593078007864</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.3721904765971731</v>
+        <v>0.4894624400735696</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.3731544860586444</v>
+        <v>0.4903309250689412</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.3688068258388979</v>
+        <v>0.4893382992418234</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.3644342757036014</v>
+        <v>0.4863535328719621</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.3600365646384853</v>
+        <v>0.4833583641260177</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.3600365646384853</v>
+        <v>0.4803527032158843</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.3600365646384853</v>
+        <v>0.4803527032158843</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.3548737334780352</v>
+        <v>0.4803527032158843</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.3496758355176119</v>
+        <v>0.4768327163773476</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.3511645537443941</v>
+        <v>0.4732981778510352</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.3526503830608894</v>
+        <v>0.4743095395176642</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.3541333340567174</v>
+        <v>0.475319704631225</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.355613417264478</v>
+        <v>0.4763286766738646</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.3161709577757117</v>
+        <v>0.4773364591116043</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.315131973245883</v>
+        <v>0.4507382344030111</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.3228865079456726</v>
+        <v>0.4500447755486903</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.3206545006723225</v>
+        <v>0.455229288919585</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.3184159959103443</v>
+        <v>0.4537349243306701</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.3161709577757117</v>
+        <v>0.4522379100274074</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.3192779690130045</v>
+        <v>0.4507382344030111</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.3192779690130045</v>
+        <v>0.4528141585630869</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.309919047740963</v>
+        <v>0.4528141585630869</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.309919047740963</v>
+        <v>0.4465709786307197</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.3078237459138213</v>
+        <v>0.4465709786307197</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.3057227294617597</v>
+        <v>0.4451772940659882</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.3036159688207736</v>
+        <v>0.443781294166687</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.2956639460324491</v>
+        <v>0.4423829694319732</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.2988546005178527</v>
+        <v>0.4371183821254492</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.2908530927064792</v>
+        <v>0.439228188963493</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.2908530927064792</v>
+        <v>0.4339436595114545</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.2816833443209692</v>
+        <v>0.4339436595114545</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.2724035367430604</v>
+        <v>0.4279138134181888</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4218399626139124</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.2546281576241212</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.2537848554443967</v>
+        <v>0.4102846294674689</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4097389856729778</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.2512494379453543</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.2495545481781329</v>
+        <v>0.4080998822030188</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.247855951452042</v>
+        <v>0.4070053305540338</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.2461536323955009</v>
+        <v>0.4059093205392841</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.2579922316097978</v>
+        <v>0.4048118473615876</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.2444475755429485</v>
+        <v>0.4124636002127955</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.2289222637198147</v>
+        <v>0.4037129061985603</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.2393068221278813</v>
+        <v>0.3937555679840334</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.2387335236708781</v>
+        <v>0.4004072261917262</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.2381598023348896</v>
+        <v>0.4000391044372942</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.2375856575292881</v>
+        <v>0.3996708172188475</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.2236775840928207</v>
+        <v>0.3993023643530103</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.2201614199796671</v>
+        <v>0.3904093188240825</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.2113010310627628</v>
+        <v>0.3881708293404051</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3825475024381906</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.2230926569812741</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.2398796982953124</v>
+        <v>0.3900366642139779</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.256312017815663</v>
+        <v>0.4007751826651968</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4113748345528865</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.2495545481781329</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.2444475755429485</v>
+        <v>0.4070053305540338</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.2529406360320605</v>
+        <v>0.4037129061985603</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.256312017815663</v>
+        <v>0.4091929802583938</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.2596688139193466</v>
+        <v>0.4113748345528865</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.2630111432888</v>
+        <v>0.4135509311210259</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.2596688139193466</v>
+        <v>0.4157213072572117</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.247855951452042</v>
+        <v>0.4135509311210259</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.2646769197293004</v>
+        <v>0.4059093205392841</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.2713044425611679</v>
+        <v>0.4168043617127777</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.2774666442185918</v>
+        <v>0.421122462005403</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.2835801492426073</v>
+        <v>0.4251503573949336</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.2896456807161654</v>
+        <v>0.4291588237223611</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.2956639460324491</v>
+        <v>0.4331480902923783</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.2876291233020272</v>
+        <v>0.4371183821254492</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.2917717601311232</v>
+        <v>0.4318204540983259</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.2958922880236061</v>
+        <v>0.4345492991618578</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.2999909291940073</v>
+        <v>0.4372692591260081</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.3040679025857687</v>
+        <v>0.4399804049359317</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.3081234239345285</v>
+        <v>0.4426828066379902</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.3121577058298879</v>
+        <v>0.4453765333953079</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.3161709577757117</v>
+        <v>0.4480616535029909</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.3114867915472761</v>
+        <v>0.4507382344030111</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.3012389598984342</v>
+        <v>0.4476147282964682</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.2908530927064792</v>
+        <v>0.4408070632909145</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.2803256288919789</v>
+        <v>0.4339436595114545</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.2696528705205798</v>
+        <v>0.4270233788012245</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.2401659782043017</v>
+        <v>0.4200450454986226</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.20951681879344</v>
+        <v>0.4009590989786871</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.1776155357169626</v>
+        <v>0.381418148380674</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.2077285208244977</v>
+        <v>0.361394495681181</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.2071315105053788</v>
+        <v>0.3802872189072977</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.2065340435896426</v>
+        <v>0.3799098913867687</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3795323880156736</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.2059361194160543</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.2068328341633823</v>
+        <v>0.3791547085919402</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.2077285208244977</v>
+        <v>0.3797211616951626</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.2086231816275124</v>
+        <v>0.3802872189072977</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.20951681879344</v>
+        <v>0.3808528809094036</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.2696528705205798</v>
+        <v>0.381418148380674</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.2745970547298651</v>
+        <v>0.4200450454986226</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.2745970547298651</v>
+        <v>0.423273104833086</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.2745970547298651</v>
+        <v>0.423273104833086</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.2745970547298651</v>
+        <v>0.423273104833086</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.2745970547298651</v>
+        <v>0.423273104833086</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.2860120786974898</v>
+        <v>0.423273104833086</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.309919047740963</v>
+        <v>0.4307568216253346</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.3161709577757117</v>
+        <v>0.4465709786307197</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.3223724792984148</v>
+        <v>0.4507382344030111</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.3234012211591546</v>
+        <v>0.4548849883289918</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.3244285880572093</v>
+        <v>0.4555741381437233</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.3254545834658131</v>
+        <v>0.4562627264570966</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.3331061799884223</v>
+        <v>0.4569507543950413</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.3346273918678788</v>
+        <v>0.4620932146643477</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.3269910126019777</v>
+        <v>0.4631179729537123</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.3254545834658131</v>
+        <v>0.4579817480521613</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.3320903613327282</v>
+        <v>0.4569507543950413</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.3386692753619958</v>
+        <v>0.461409354013375</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.3451922406153995</v>
+        <v>0.4658446292480478</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.4702568784671783</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.3481842177334915</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.3511645537443941</v>
+        <v>0.4722856161329585</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.3536393362201862</v>
+        <v>0.4743095395176642</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.3561061428597814</v>
+        <v>0.4759924850088044</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.3585650221635079</v>
+        <v>0.4776721228309619</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.3673520879679204</v>
+        <v>0.4793484689564513</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.376039230371104</v>
+        <v>0.48535630351823</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.3846285779311893</v>
+        <v>0.4913224081780119</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.3846285779311893</v>
+        <v>0.4972474899511721</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.389830367218404</v>
+        <v>0.4972474899511721</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.394996864813578</v>
+        <v>0.5008484739488164</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.4001285210648042</v>
+        <v>0.5044345486748705</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.4084517751800245</v>
+        <v>0.5080058653148234</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.4194094166339477</v>
+        <v>0.513818392385039</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.423478065570654</v>
+        <v>0.5215086756434799</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.4382122220672828</v>
+        <v>0.5243751949585578</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.4380171212597768</v>
+        <v>0.5348064356994939</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.4378219701110142</v>
+        <v>0.539819894105152</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.4376267685964157</v>
+        <v>0.5448050865945382</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.437431516691376</v>
+        <v>0.5497624026279297</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.4372362143712714</v>
+        <v>0.5497624026279297</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.4370408616114698</v>
+        <v>0.5644708608194531</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.4368454583873147</v>
+        <v>0.5548458411183528</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.4366500046741297</v>
+        <v>0.5451157315445694</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.4364545004472271</v>
+        <v>0.3199448806147558</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.436258945681895</v>
+        <v>0.5413807846613383</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.4360633403534111</v>
+        <v>0.531027553177787</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.4358676844370253</v>
+        <v>0.5329190205009029</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.4356719779079814</v>
+        <v>0.5385691948368128</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.4354762207414975</v>
+        <v>0.5300802932568256</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.4352804129127739</v>
+        <v>0.5291320122267535</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0.4350845543969948</v>
+        <v>0.5281827073711158</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.4348886451693286</v>
+        <v>0.52723237596192</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.4346926852049222</v>
+        <v>0.5300802932568256</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.4344966744789076</v>
+        <v>0.5128523272565433</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.4343006129663953</v>
+        <v>0.5186327424510477</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.4341045006424826</v>
+        <v>0.5243751949585578</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.4339083374822446</v>
+        <v>0.5241366760564239</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.4337121234607384</v>
+        <v>0.5238980922619831</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.4335158585530072</v>
+        <v>0.5236594435317172</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.4333195427340746</v>
+        <v>0.523420729822061</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.4331231759789418</v>
+        <v>0.5262810152595667</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.4329267582625951</v>
+        <v>0.5300802932568256</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.4327302895600065</v>
+        <v>0.522465224316587</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.432533769846124</v>
+        <v>0.5250109284434317</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.4323371990958798</v>
+        <v>0.5275492673286966</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.4321405772841889</v>
+        <v>0.5300802932568256</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.4319439043859461</v>
+        <v>0.5281827073711158</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.4317471803760311</v>
+        <v>0.52723237596192</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.4315504052293013</v>
+        <v>0.5300802932568256</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.439537574417395</v>
+        <v>0.5357486304225214</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.4364414650354513</v>
+        <v>0.5335486080798115</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.4333326320397415</v>
+        <v>0.531343080039496</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.4302109761240427</v>
+        <v>0.5291320122267535</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.4408606078239101</v>
+        <v>0.5366898200965666</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.4408606078239101</v>
+        <v>0.5366898200965666</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.4368845430704775</v>
+        <v>0.5338632332788724</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.4368845430704775</v>
+        <v>0.5338632332788724</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.4373273617294284</v>
+        <v>0.5341777462160981</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.4377699212994637</v>
+        <v>0.5344921469901351</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.4382122220672828</v>
+        <v>0.5348064356994939</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.439537574417395</v>
+        <v>0.5357486304225214</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.439537574417395</v>
+        <v>0.5357486304225214</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.4526648086723606</v>
+        <v>0.5451157315445694</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.4500575505003157</v>
+        <v>0.5432502266156776</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.4483143628047852</v>
+        <v>0.5420043706909006</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.4465671421527544</v>
+        <v>0.5407567589040847</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.4448158708522367</v>
+        <v>0.5395073851450869</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.4408606078239101</v>
+        <v>0.5366898200965666</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.4434997484314316</v>
+        <v>0.5385691948368128</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.4434997484314316</v>
+        <v>0.5385691948368128</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.4434997484314316</v>
+        <v>0.5385691948368128</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.4612911706180434</v>
+        <v>0.5513059074879587</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.4786723508062432</v>
+        <v>0.5638628193935407</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.4956608283735946</v>
+        <v>0.5762460583220899</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.4944307205129563</v>
+        <v>0.5753457284683252</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.5186571935494122</v>
+        <v>0.5931840582195556</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.5186571935494122</v>
+        <v>0.5931840582195556</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.5363255376259284</v>
+        <v>0.6063365879022649</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>0.5543428206353536</v>
+        <v>0.6198747955013379</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.5719339657592615</v>
+        <v>0.6332169482798409</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.5891176510284151</v>
+        <v>0.6463698970865768</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.5795695523518463</v>
+        <v>0.6390467698799591</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.5891176510284151</v>
+        <v>0.6463698970865768</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.5657124537786595</v>
+        <v>0.6284840783616283</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.5586856778158165</v>
+        <v>0.6231572122397859</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.5671098669705472</v>
+        <v>0.6295457791166936</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.5754395379201549</v>
+        <v>0.6358905651691624</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.5836766774728419</v>
+        <v>0.6421923023361782</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.5998810077911321</v>
+        <v>0.6546694618845936</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.586402162711039</v>
+        <v>0.6442834386852705</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.5836766774728419</v>
+        <v>0.6421923023361782</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.5902010627327376</v>
+        <v>0.6472031763863126</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.5966684206938888</v>
+        <v>0.6521873118372064</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.6030796872577238</v>
+        <v>0.6571450575305224</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.6094357758972215</v>
+        <v>0.662076755108493</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.6157375783612196</v>
+        <v>0.6669827392163219</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.6157375783612196</v>
+        <v>0.6669827392163219</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.6083802214825793</v>
+        <v>0.6612566001220785</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.6157375783612196</v>
+        <v>0.6669827392163219</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>0.6069704629046129</v>
+        <v>0.6601619464326496</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.5980979614940951</v>
+        <v>0.6532913015589406</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.5891176510284151</v>
+        <v>0.6463698970865768</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>0.5836766774728419</v>
+        <v>0.6421923023361782</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.5781954360336279</v>
+        <v>0.6379958918524022</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.5586856778158165</v>
+        <v>0.6231572122397859</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.5781954360336279</v>
+        <v>0.6379958918524022</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.5794231012718711</v>
+        <v>0.6389347327782775</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.580648736144183</v>
+        <v>0.6398726271053168</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>0.5818723469951621</v>
+        <v>0.6408095771817477</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>0.5781954360336279</v>
+        <v>0.6379958918524022</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>0.5657124537786595</v>
+        <v>0.6284840783616283</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>0.5444297237407456</v>
+        <v>0.6124102582477309</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0.5400991573790597</v>
+        <v>0.6091615129107957</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>0.5357432818454564</v>
+        <v>0.6059012092945248</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>0.5313618157823568</v>
+        <v>0.6026292455441844</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0.5269544732052696</v>
+        <v>0.5993455183666379</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0.5633588635106692</v>
+        <v>0.6266976739217549</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>0.5891176510284151</v>
+        <v>0.6463698970865768</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>0.5726733590410698</v>
+        <v>0.633780455435369</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.5726733590410698</v>
+        <v>0.633780455435369</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>0.5708234923258173</v>
+        <v>0.6323710451060018</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.5689690022735538</v>
+        <v>0.6309594890222399</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.5671098669705472</v>
+        <v>0.6295457791166936</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.5671098669705472</v>
+        <v>0.6295457791166936</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.5664114891292353</v>
+        <v>0.6290150809650314</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.5657124537786595</v>
+        <v>0.6284840783616283</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.5759915376873481</v>
+        <v>0.6363120122944044</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.5730427795013862</v>
+        <v>0.6340620807172583</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.5700822523291071</v>
+        <v>0.6318066806137175</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.5671098669705472</v>
+        <v>0.6295457791166936</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.5592502717509005</v>
+        <v>0.6235844937355863</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0.5535849454084607</v>
+        <v>0.619302745350242</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>0.5535849454084607</v>
+        <v>0.619302745350242</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>0.5535849454084607</v>
+        <v>0.619302745350242</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>0.5600023971338786</v>
+        <v>0.6241538949173773</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>0.5663649072413266</v>
+        <v>0.6289796902680622</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>0.5726733590410698</v>
+        <v>0.633780455435369</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>0.5687832981424368</v>
+        <v>0.6308182150871962</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0.5648727417948658</v>
+        <v>0.6278464727547268</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>0.5704529648813708</v>
+        <v>0.6320889058070631</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0.5759915376873481</v>
+        <v>0.6363120122944044</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.5741499382397173</v>
+        <v>0.6349064441462922</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.5723037545182317</v>
+        <v>0.6334987446442302</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.5704529648813708</v>
+        <v>0.6320889058070631</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.5704529648813708</v>
+        <v>0.6320889058070631</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.5836766774728419</v>
+        <v>0.6421923023361782</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>0.5781954360336279</v>
+        <v>0.6379958918524022</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0.586402162711039</v>
+        <v>0.6442834386852705</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>0.5927228707846188</v>
+        <v>0.649144609203111</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>0.5989900224239673</v>
+        <v>0.6539806350491657</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0.6052044698740078</v>
+        <v>0.658791834290462</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>0.5998810077911321</v>
+        <v>0.6546694618845936</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.612243226753864</v>
+        <v>0.6642603473494453</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.6244016516637902</v>
+        <v>0.6737545618250238</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.6363625476188703</v>
+        <v>0.683154471357128</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.6414296706693809</v>
+        <v>0.6871547020458539</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.6464620717307472</v>
+        <v>0.69113820452478</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.6514601982872108</v>
+        <v>0.6951051501131562</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>0.6711186182594737</v>
+        <v>0.7108106939232948</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0.6996490395649664</v>
+        <v>0.7338997558429756</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.7535565971252458</v>
+        <v>0.7785036327092583</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.7578728529286858</v>
+        <v>0.7821313561579677</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.7578728529286858</v>
+        <v>0.7821313561579677</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0.7621634534164548</v>
+        <v>0.7857459228640524</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0.7846250087244622</v>
+        <v>0.8048061646200289</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>0.7942356382992593</v>
+        <v>0.8130327364563652</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>0.80371931336615</v>
+        <v>0.8211929067790791</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>0.7873840449351608</v>
+        <v>0.8071634671385044</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0.7664286856185685</v>
+        <v>0.7893474497788908</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>0.7759341602195056</v>
+        <v>0.7974038032184836</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>0.7727795847211425</v>
+        <v>0.7947255423245059</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.7696111318452958</v>
+        <v>0.7920401070249441</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.7664286856185685</v>
+        <v>0.7893474497788908</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.7688546801624385</v>
+        <v>0.7913996549987758</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>0.7712725354600023</v>
+        <v>0.7934476612833767</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>0.7736823030289948</v>
+        <v>0.7954914897384198</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>0.7760840339087345</v>
+        <v>0.7975311613010132</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.7784777786659776</v>
+        <v>0.7995666967414945</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0.7808635874006784</v>
+        <v>0.8015981166652482</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>0.7832415097516563</v>
+        <v>0.8036254415144968</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0.7832415097516563</v>
+        <v>0.8036254415144968</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>0.7983154303919582</v>
+        <v>0.8165380060537983</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>0.8010224614184818</v>
+        <v>0.8188681283299872</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>0.80371931336615</v>
+        <v>0.8211929067790791</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>0.8021024196277278</v>
+        <v>0.819798679277415</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>0.8077456632133657</v>
+        <v>0.8246701205386915</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>0.8109505315156076</v>
+        <v>0.8274433507992105</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0.8141411211481504</v>
+        <v>0.8302090443639965</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>0.8160486711062482</v>
+        <v>0.8318648638227344</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>0.8179511495780973</v>
+        <v>0.8335179989434625</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>0.8198485820168626</v>
+        <v>0.8351684604234635</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0.8217409936881692</v>
+        <v>0.8368162588922192</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>0.8236284096719269</v>
+        <v>0.8384614049120043</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.8382046449689016</v>
+        <v>0.8512239699569299</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0.8410845016538087</v>
+        <v>0.8537575630041057</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>0.8439527713352932</v>
+        <v>0.8562849385208444</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>0.8468095419138892</v>
+        <v>0.8588061339684872</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0.8472845584928628</v>
+        <v>0.8592257349801238</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0.8477592584688054</v>
+        <v>0.8596451655254156</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>0.8482336422407748</v>
+        <v>0.8600644257749015</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>0.8487077102070968</v>
+        <v>0.8604835158988489</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>0.8491814627653493</v>
+        <v>0.8609024360672546</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>0.8496549003123848</v>
+        <v>0.8613211864498425</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0.8501280232443111</v>
+        <v>0.8617397672160687</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>0.8378839417939696</v>
+        <v>0.8509420741806701</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0.8365996851794808</v>
+        <v>0.8498137177691747</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0.8275445897480198</v>
+        <v>0.8418803191077171</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0.8314394175776796</v>
+        <v>0.8452878604000704</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.8340242155015023</v>
+        <v>0.8475532821751388</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0.8365996851794808</v>
+        <v>0.8498137177691747</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.8618549904380703</v>
+        <v>0.8721496512510518</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.8618549904380703</v>
+        <v>0.8721496512510518</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>0.8581233572875018</v>
+        <v>0.8688298518443132</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>0.8643319047580027</v>
+        <v>0.8743569682279779</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.8704866609961686</v>
+        <v>0.879854850120356</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.8765885011197652</v>
+        <v>0.8853238756038821</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.8787723748493397</v>
+        <v>0.8872857322828405</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>0.8765885011197652</v>
+        <v>0.8853238756038821</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>0.9446523276708021</v>
+        <v>0.9475953981873684</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.9579966109523328</v>
+        <v>0.9600823024993119</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>0.9633864347118788</v>
+        <v>0.9651522221821853</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.9687350580150067</v>
+        <v>0.9701984871794671</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>0.9740430727707432</v>
+        <v>0.9752213675884958</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>0.9793110584588636</v>
+        <v>0.9802211286232358</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0.9845395824722143</v>
+        <v>0.9851980307346615</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0.9923126821416632</v>
+        <v>0.9926240420928722</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0.9980196721246655</v>
+        <v>0.9980968384427797</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>0.9960336933376697</v>
+        <v>0.9961903689692455</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0.9940420330487401</v>
+        <v>0.9942805773763514</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.992044660423308</v>
+        <v>0.9923674493635908</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.9900415443799186</v>
+        <v>0.9904509705320685</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0.9880326535876147</v>
+        <v>0.9885311263835712</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0.9860179564632938</v>
+        <v>0.9866079023196284</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0.9839974211690015</v>
+        <v>0.9846812836405554</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.9819710156092327</v>
+        <v>0.9827512555444857</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>0.9799387074281576</v>
+        <v>0.9808178031263981</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.9779004640068374</v>
+        <v>0.978880911377122</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.9758562524603764</v>
+        <v>0.9769405651823406</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.9738060396350665</v>
+        <v>0.9749967493215717</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.9717497921054745</v>
+        <v>0.9730494484671481</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.9696874761714831</v>
+        <v>0.9710986471831757</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.9676190578553205</v>
+        <v>0.9691443299244775</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.965544502898517</v>
+        <v>0.9671864810355348</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>0.9634637767588368</v>
+        <v>0.965225084749407</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0.961376844607174</v>
+        <v>0.9632601251866391</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>0.9592836713243935</v>
+        <v>0.9612915863541598</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>0.9571842214981352</v>
+        <v>0.9593194521441559</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>0.9550784594195623</v>
+        <v>0.9573437063329491</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0.9529663490800937</v>
+        <v>0.9553643325798402</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0.9508478541680576</v>
+        <v>0.9533813144259502</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>0.9487229380653162</v>
+        <v>0.951394635293046</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>0.946591563843854</v>
+        <v>0.949404278482348</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>0.9444536942622817</v>
+        <v>0.9474102271733194</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>0.9423092917623386</v>
+        <v>0.9454124644224509</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>0.9401583184653113</v>
+        <v>0.9434109731620193</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.9380007361684104</v>
+        <v>0.9414057361988348</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.9358365063411123</v>
+        <v>0.9393967362129712</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>0.9336655901214215</v>
+        <v>0.93738395575648</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.931487948312105</v>
+        <v>0.9353673772520881</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.9293035413768589</v>
+        <v>0.9333469829918792</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.9271123294364303</v>
+        <v>0.931322755135956</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>0.9249142722646644</v>
+        <v>0.9292946757110854</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.9227093292845261</v>
+        <v>0.9272627266093283</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.9204974595640358</v>
+        <v>0.9252268895866507</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.9182786218121652</v>
+        <v>0.9231871462615113</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.9160527743746556</v>
+        <v>0.9211434781134387</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.9138198752298061</v>
+        <v>0.9190958664815876</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>0.9115798819841565</v>
+        <v>0.917044292563268</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>0.909332751868158</v>
+        <v>0.9149887374124663</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>0.9070784417317368</v>
+        <v>0.9129291819383396</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>0.9048169080398143</v>
+        <v>0.9108656069036887</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>0.9025481068677665</v>
+        <v>0.9087979929234207</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>0.9002719938967987</v>
+        <v>0.9067263204629763</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>0.8979885244092669</v>
+        <v>0.904650569836748</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>0.8956976532839231</v>
+        <v>0.9025707212064686</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>0.8933993349910869</v>
+        <v>0.9004867545795858</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>0.8910935235877604</v>
+        <v>0.8983986498076051</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0.8887801727126492</v>
+        <v>0.8963063865844203</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.8864592355811167</v>
+        <v>0.8942099444446125</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.8841306649800806</v>
+        <v>0.8921093027617308</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.8817944132627975</v>
+        <v>0.8900044407465484</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>0.8794504323436039</v>
+        <v>0.887895337445292</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>0.8770986736925463</v>
+        <v>0.8857819717378499</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>0.8747390883299602</v>
+        <v>0.8836643223359564</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.8723716268209385</v>
+        <v>0.8815423677813432</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.8699962392697334</v>
+        <v>0.8794160864438763</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.8699962392697334</v>
+        <v>0.8794160864438763</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.8603646871226083</v>
+        <v>0.8708230056941748</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.8528659522666473</v>
+        <v>0.8641641994835103</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>0.8558749401199828</v>
+        <v>0.8668328592503973</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>0.8588712526245876</v>
+        <v>0.8694946620898734</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.8618549904380703</v>
+        <v>0.8721496512510518</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>0.8490867374672861</v>
+        <v>0.8608186656218659</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>0.8513566733037736</v>
+        <v>0.8628272846169904</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>0.8521117128712037</v>
+        <v>0.8634959580368862</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>0.8528659522666473</v>
+        <v>0.8641641994835103</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>0.8581233572875018</v>
+        <v>0.8688298518443132</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>0.8528659522666473</v>
+        <v>0.8641641994835103</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.8518601220026945</v>
+        <v>0.8632731149279247</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>0.8531171878596799</v>
+        <v>0.8643868507571086</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>0.8543720369492798</v>
+        <v>0.8654993892030374</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>0.8452873566271313</v>
+        <v>0.8574622632060529</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>0.8457951132123913</v>
+        <v>0.8579104146203418</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.8500964914956111</v>
+        <v>0.861711867105214</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>0.8543720369492798</v>
+        <v>0.8654993892030374</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>0.8543720369492798</v>
+        <v>0.8654993892030374</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>0.8506008319565117</v>
+        <v>0.8621581785351198</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>0.8515455082996031</v>
+        <v>0.8629944935070921</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>0.8389096847329123</v>
+        <v>0.8518438689017303</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>0.8363425561680824</v>
+        <v>0.8495878978178903</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>0.8337661565334207</v>
+        <v>0.8473269648225485</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>0.8337661565334207</v>
+        <v>0.8473269648225485</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>0.8373705165844045</v>
+        <v>0.8504908801778668</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>0.8355706126196889</v>
+        <v>0.8489101401429795</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>0.8337661565334207</v>
+        <v>0.8473269648225485</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0.8429979634400739</v>
+        <v>0.8554431685321291</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>0.8378839417939696</v>
+        <v>0.8509420741806701</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>0.8365996851794808</v>
+        <v>0.8498137177691747</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>0.8381405158695054</v>
+        <v>0.8511675969814445</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>0.8386533872762403</v>
+        <v>0.8516184943152989</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>0.8429979634400739</v>
+        <v>0.8554431685321291</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>0.8399339543758719</v>
+        <v>0.8527448739988785</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>0.8396780248676565</v>
+        <v>0.8525196966586857</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>0.8394220034660718</v>
+        <v>0.8522944700468162</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>0.8399339543758719</v>
+        <v>0.8527448739988785</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0.8391658901086618</v>
+        <v>0.8520691941366967</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>0.8414676051539871</v>
+        <v>0.8540949048200757</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>0.84050946010729</v>
+        <v>0.8532513430022326</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>0.839550025657438</v>
+        <v>0.8524070895133713</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>0.8385892985170891</v>
+        <v>0.8515621429544022</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>0.8360853344465111</v>
+        <v>0.8493620282476815</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0.8365996851794808</v>
+        <v>0.8498137177691747</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>0.8371136653245266</v>
+        <v>0.8502652089223486</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>0.8376272753865663</v>
+        <v>0.8507165019217215</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>0.8353131123876976</v>
+        <v>0.8486841215546697</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>0.8283252564304089</v>
+        <v>0.8425627342124973</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>0.8322158402244266</v>
+        <v>0.8459680120947741</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>0.8316336024192248</v>
+        <v>0.8454579405951073</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>0.8310508893717881</v>
+        <v>0.8449476153981876</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0.8304677003475627</v>
+        <v>0.8444370361928724</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>0.8298840346103269</v>
+        <v>0.8439262026674124</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>0.8314394175776796</v>
+        <v>0.8452878604000704</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>0.8283252564304089</v>
+        <v>0.8425627342124973</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>0.8298840346103269</v>
+        <v>0.8439262026674124</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>0.8283252564304089</v>
+        <v>0.8425627342124973</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.8267630689865326</v>
+        <v>0.8411974490907128</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>0.8251974581415622</v>
+        <v>0.8398303413262758</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>0.8157310989899305</v>
+        <v>0.8315890806151964</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>0.8157310989899305</v>
+        <v>0.8315890806151964</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>0.8157310989899305</v>
+        <v>0.8315890806151964</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>0.8149365515975253</v>
+        <v>0.8308992960490498</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>0.8138757811090098</v>
+        <v>0.8299788565299855</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>0.8128134363321298</v>
+        <v>0.8290575847268535</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0.8117495128399899</v>
+        <v>0.8281354787828581</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.8061378366828826</v>
+        <v>0.8232806632912111</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>0.7931437662015286</v>
+        <v>0.8120959424967937</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>0.80371931336615</v>
+        <v>0.8211929067790791</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>0.7909550287107319</v>
+        <v>0.8102197449202273</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>0.7904068005637983</v>
+        <v>0.8097501503944373</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>0.7898581537005649</v>
+        <v>0.8092803373159907</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>0.7939628259037121</v>
+        <v>0.8127986193475247</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>0.7765634201400973</v>
+        <v>0.7979385986171419</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>0.7776807479917087</v>
+        <v>0.7988886432218127</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>0.7762838169699453</v>
+        <v>0.7977009469459893</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>0.7732009940767535</v>
+        <v>0.795083057266381</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>0.7740430737588566</v>
+        <v>0.7957977049652514</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>0.7762838169699453</v>
+        <v>0.7977009469459893</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>0.7734817967226117</v>
+        <v>0.7953213297583639</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>0.7706688318643549</v>
+        <v>0.7929360522052942</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>0.7748841698835918</v>
+        <v>0.7965118438292389</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>0.7774015785938584</v>
+        <v>0.7986512163171309</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>0.7815777899296634</v>
+        <v>0.8022067431769628</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.7774015785938584</v>
+        <v>0.7986512163171309</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>0.7811612579681615</v>
+        <v>0.8018517558033316</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>0.7849013893548049</v>
+        <v>0.8050421432064543</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>0.788622164188161</v>
+        <v>0.8082224575065269</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>0.7923237711565747</v>
+        <v>0.811392776708566</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>0.7996702228312351</v>
+        <v>0.8177037370619058</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>0.8061378366828826</v>
+        <v>0.8232806632912111</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>0.8053325686371053</v>
+        <v>0.8225852213428029</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>0.8045263948414263</v>
+        <v>0.8218893027739849</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>0.80371931336615</v>
+        <v>0.8211929067790791</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0.7955981473406117</v>
+        <v>0.8142025095816201</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>0.7966183345564142</v>
+        <v>0.8150789524864532</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>0.7976370736227762</v>
+        <v>0.8159546369589523</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>0.7986543684245424</v>
+        <v>0.8168295646142256</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>0.7996702228312351</v>
+        <v>0.8177037370619058</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>0.7996702228312351</v>
+        <v>0.8177037370619058</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>0.798044164638199</v>
+        <v>0.8163046987488671</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>0.7984510248194008</v>
+        <v>0.8166546395512084</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0.798857654413931</v>
+        <v>0.8170044594689572</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0.799264053668951</v>
+        <v>0.817354158604956</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.7996702228312351</v>
+        <v>0.8177037370619058</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.7832415097516563</v>
+        <v>0.8036254415144968</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>0.7915028387456262</v>
+        <v>0.8106891211436997</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>0.7873840449351608</v>
+        <v>0.8071634671385044</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>0.7898581537005649</v>
+        <v>0.8092803373159907</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>0.7790749729049127</v>
+        <v>0.8000749367508273</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>0.7720766874225937</v>
+        <v>0.7941294006009592</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>0.7650097427262663</v>
+        <v>0.7881483825219451</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>0.7578728529286858</v>
+        <v>0.7821313561579677</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>0.7535565971252458</v>
+        <v>0.7785036327092583</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>0.7535565971252458</v>
+        <v>0.7785036327092583</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>0.7664286856185685</v>
+        <v>0.7893474497788908</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>0.7647256187588187</v>
+        <v>0.7879083963719702</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>0.7509544078915154</v>
+        <v>0.776320634123389</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>0.7369156418584959</v>
+        <v>0.764596181070754</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>0.7021318638750724</v>
+        <v>0.735925793204556</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>0.6999598560537166</v>
+        <v>0.7341532409602987</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>0.6977813494324812</v>
+        <v>0.7323774583143556</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>0.6996490395649664</v>
+        <v>0.7338997558429756</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>0.7198832492854734</v>
+        <v>0.7504902634719313</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>0.7165497595108343</v>
+        <v>0.7477446300644521</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>0.7195808363810317</v>
+        <v>0.750240977570547</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>0.7315800999391238</v>
+        <v>0.7601634514597839</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>0.7315800999391238</v>
+        <v>0.7601634514597839</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>0.7259801530760841</v>
+        <v>0.755524744736582</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>0.7297928189608749</v>
+        <v>0.7586814394973134</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>0.7313569307034324</v>
+        <v>0.759978321712818</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>0.7329176739591512</v>
+        <v>0.7612735010264389</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>0.7344750624287801</v>
+        <v>0.7625669829372057</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>0.7518228461083876</v>
+        <v>0.7770488329254064</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>0.741918920668609</v>
+        <v>0.7687644740201698</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>0.7433839143842489</v>
+        <v>0.7699871099453213</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>0.7448459473216271</v>
+        <v>0.771208239339612</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0.737801089928503</v>
+        <v>0.765333039547182</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>0.736620251724192</v>
+        <v>0.7643504394777361</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>0.7372109115420615</v>
+        <v>0.7648418615884149</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>0.737801089928503</v>
+        <v>0.765333039547182</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>0.7333629838213351</v>
+        <v>0.7616432402512565</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>0.7342527832397083</v>
+        <v>0.7623823035220685</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>0.7404509548084892</v>
+        <v>0.7675403269761867</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>0.7375060608677977</v>
+        <v>0.765087481068107</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>0.7345491403371947</v>
+        <v>0.7626285350683153</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>0.7315800999391238</v>
+        <v>0.7601634514597839</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>0.7259801530760841</v>
+        <v>0.755524744736582</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>0.724854955337884</v>
+        <v>0.7545943758638007</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>0.7237280095742697</v>
+        <v>0.7536631263850073</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>0.7360291097312288</v>
+        <v>0.763858772915895</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>0.7342527832397083</v>
+        <v>0.7623823035220685</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>0.7324720902373896</v>
+        <v>0.7609036232383</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>0.7306870103690457</v>
+        <v>0.7594227238892763</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>0.7288975231395058</v>
+        <v>0.7579395972513874</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>0.7253052439088012</v>
+        <v>0.7549666289707213</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>0.7271036079123858</v>
+        <v>0.7564542350523318</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>0.7198832492854734</v>
+        <v>0.7504902634719313</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>0.717763708942325</v>
+        <v>0.748743931305716</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>0.7156379640302166</v>
+        <v>0.7469944853591688</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>0.7107556343910399</v>
+        <v>0.7429839854593132</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>0.7333629838213351</v>
+        <v>0.7616432402512565</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>0.7306870103690457</v>
+        <v>0.7594227238892763</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>0.7280011203209682</v>
+        <v>0.7571971961159372</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>0.7253052439088012</v>
+        <v>0.7549666289707213</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>0.716245954842635</v>
+        <v>0.7474946455888314</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>0.7192026430159419</v>
+        <v>0.7499292811622922</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>0.7203366325621374</v>
+        <v>0.7508640737080921</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>0.7214688533656499</v>
+        <v>0.751797977375283</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>0.7225993106395343</v>
+        <v>0.7527309942435938</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>0.7146488923456866</v>
+        <v>0.746181180325052</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>0.7157900094492957</v>
+        <v>0.7471195493389091</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>0.7169293367296081</v>
+        <v>0.7480570210769757</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>0.7135059800908694</v>
+        <v>0.7452419119163398</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>0.7207897328402257</v>
+        <v>0.7512377417237628</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>0.7180668794912997</v>
+        <v>0.7489935976503674</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>0.7150294639112147</v>
+        <v>0.7464940698242897</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>0.711979295374495</v>
+        <v>0.7439881513018514</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>0.7116735732030461</v>
+        <v>0.7437372064089736</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>0.7089162721804199</v>
+        <v>0.7414758016711782</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>0.711367722383657</v>
+        <v>0.7434861971647158</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>0.7138109325199444</v>
+        <v>0.7454924715528486</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>0.716245954842635</v>
+        <v>0.7474946455888314</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>0.7042974094837611</v>
+        <v>0.7376951294885428</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>0.7338997558429756</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>0.7338997558429756</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>0.7300895390656359</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>0.7338997558429756</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>0.7376951294885428</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>0.7414758016711782</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>0.7376951294885428</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>0.7262643352988432</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>0.7338997558429756</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>0.7262643352988432</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>0.7237058012977016</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>0.7211404976803302</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>0.7185683801405389</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>0.7224239984493825</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>0.713403523741859</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>0.7121079804153814</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>0.7108106939232948</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>0.7108106939232948</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>0.7092516409988676</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>0.7100314829009384</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>0.7108106939232948</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>0.7185683801405389</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>0.7224239984493825</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>0.7262643352988432</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>0.7277962245436318</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>0.7185683801405389</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.7170218203289771</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0.7201124708317719</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>0.7231932835546941</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>0.7262643352988432</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>0.7131445542528903</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0.7177954094828309</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>0.7185683801405389</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0.7224239984493825</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0.7211404976803302</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>0.7198552934379239</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0.7185683801405389</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0.7254974832904291</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0.7108106939232948</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>0.7157311273190508</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>0.7167638196232038</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0.7177954094828309</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>0.6751031257908702</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>0.7146973296628161</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>0.7198552934379239</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>0.7249859117491115</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>0.7300895390656359</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>0.7489935976503674</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>0.7527309942435938</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>0.771208239339612</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>0.771208239339612</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>0.7772914473837897</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>0.7833376677773027</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>0.7893474497788908</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>0.7893474497788908</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0.7982949706826887</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>0.8036254415144968</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>0.8048061646200289</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>0.8059855051673197</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>0.8036254415144968</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>0.8000749367508273</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>0.8024433318502138</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>0.8048061646200289</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>0.8106891211436997</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>0.8095152711899603</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>0.808340054497469</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>0.8071634671385044</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>0.8071634671385044</v>
       </c>
     </row>
   </sheetData>
